--- a/Descargas/R15_2º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_2º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -397,7 +397,7 @@
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B20" s="65">
@@ -407,107 +407,107 @@
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B31" s="65">
@@ -517,10 +517,20 @@
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+        </is>
+      </c>
+      <c r="B32" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="inlineStr" r="A33">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B32" s="65">
+      <c r="B33" s="65">
         <v>1</v>
       </c>
     </row>
